--- a/biology/Zoologie/Échelet_brun/Échelet_brun.xlsx
+++ b/biology/Zoologie/Échelet_brun/Échelet_brun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelet_brun</t>
+          <t>Échelet_brun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Climacteris picumnus
 L’Échelet brun (Climacteris picumnus) est une espèce de passereau de la famille des Climacteridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelet_brun</t>
+          <t>Échelet_brun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le plus grand des Échelets. Il est brun pâle ou gris-brun avec des rayures noires sur le ventre et des barres noires sur le dessous de la queue. Les deux sexes sont largement similaires. Il s'agit d'un oiseau actif et bruyant.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chelet_brun</t>
+          <t>Échelet_brun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique dans l'est de l'Australie.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chelet_brun</t>
+          <t>Échelet_brun</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite dans les forêts d'eucalyptus et les terres boisées de la cordillère australienne
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89chelet_brun</t>
+          <t>Échelet_brun</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon Peterson, cet oiseau est représenté par 3 sous-espèces :
 Climacteris picumnus melanotus Gould 1847 ;
